--- a/Stocks/YESBANK.xlsx
+++ b/Stocks/YESBANK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1635.1166666666668</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1817.8158964893028</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1730.5375578197418</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>79.211063497163138</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>7.5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>29.900000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.25083612040133701</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1632.0861891427633</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>86.123454716154356</v>
       </c>
       <c r="Y67">
         <v>60.055993532003782</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1723</v>
+      </c>
+      <c r="D83">
+        <v>1757.8</v>
+      </c>
+      <c r="E83">
+        <v>1711.6</v>
+      </c>
+      <c r="F83">
+        <v>1757</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1742.1333333333332</v>
+      </c>
+      <c r="H83">
+        <v>1732.3651992680332</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1751.3055942984047</v>
+      </c>
+      <c r="K83">
+        <v>1712.2410452273243</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>66.425610741270063</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>45.400000000000091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>46.200000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.98268398268398371</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1736.8386177704645</v>
+      </c>
+      <c r="W83">
+        <v>1710.8577759936502</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>25.980841776814259</v>
+      </c>
+      <c r="Y83">
+        <v>38.195705602168132</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1752</v>
+      </c>
+      <c r="D84">
+        <v>1753.35</v>
+      </c>
+      <c r="E84">
+        <v>1716.05</v>
+      </c>
+      <c r="F84">
+        <v>1718</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1729.1333333333332</v>
+      </c>
+      <c r="H84">
+        <v>1730.7492663006833</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1751.759906676537</v>
+      </c>
+      <c r="K84">
+        <v>1713.0874796212522</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>40.611501124880427</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>37.299999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>5.2278820375336404E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1733.9403688827008</v>
+      </c>
+      <c r="W84">
+        <v>1711.3868296237501</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>22.55353925895065</v>
+      </c>
+      <c r="Y84">
+        <v>35.067272333524635</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1731.55</v>
+      </c>
+      <c r="D85">
+        <v>1765</v>
+      </c>
+      <c r="E85">
+        <v>1731.05</v>
+      </c>
+      <c r="F85">
+        <v>1750</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1748.6833333333334</v>
+      </c>
+      <c r="H85">
+        <v>1739.7162998170083</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1754.7021496373065</v>
+      </c>
+      <c r="K85">
+        <v>1717.0791508165296</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>57.536614720720316</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>18.950000000000045</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>33.950000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.55817378497790926</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1736.4110813622854</v>
+      </c>
+      <c r="W85">
+        <v>1714.2470644664354</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>22.164016895849954</v>
+      </c>
+      <c r="Y85">
+        <v>32.486621245989696</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1750</v>
+      </c>
+      <c r="D86">
+        <v>1774.4</v>
+      </c>
+      <c r="E86">
+        <v>1745.05</v>
+      </c>
+      <c r="F86">
+        <v>1754</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1757.8166666666666</v>
+      </c>
+      <c r="H86">
+        <v>1748.7664832418375</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1759.0794497179052</v>
+      </c>
+      <c r="K86">
+        <v>1723.294895079523</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>59.346883712767514</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>8.9500000000000455</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>29.350000000000136</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.30494037478705294</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1739.1170688450106</v>
+      </c>
+      <c r="W86">
+        <v>1717.1917263578105</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>21.925342487200169</v>
+      </c>
+      <c r="Y86">
+        <v>30.374365494231789</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1753.35</v>
+      </c>
+      <c r="D87">
+        <v>1780</v>
+      </c>
+      <c r="E87">
+        <v>1753.35</v>
+      </c>
+      <c r="F87">
+        <v>1770.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1767.95</v>
+      </c>
+      <c r="H87">
+        <v>1758.3582416209188</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1763.7284608917041</v>
+      </c>
+      <c r="K87">
+        <v>1729.9738072840735</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>66.672790876461406</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>17.150000000000091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>26.650000000000091</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.64352720450281553</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1743.9452120996243</v>
+      </c>
+      <c r="W87">
+        <v>1721.140487368343</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>22.80472473128134</v>
+      </c>
+      <c r="Y87">
+        <v>28.860437341641699</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1770.5</v>
+      </c>
+      <c r="D88">
+        <v>1779.65</v>
+      </c>
+      <c r="E88">
+        <v>1737.05</v>
+      </c>
+      <c r="F88">
+        <v>1757.9</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1758.2</v>
+      </c>
+      <c r="H88">
+        <v>1758.2791208104595</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1767.2665806935477</v>
+      </c>
+      <c r="K88">
+        <v>1731.5462945542793</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>56.887359832488094</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>20.850000000000136</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>42.600000000000136</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.48943661971831148</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1746.092102545836</v>
+      </c>
+      <c r="W88">
+        <v>1723.8634142299472</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>22.228688315888803</v>
+      </c>
+      <c r="Y88">
+        <v>27.534087536491121</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1767</v>
+      </c>
+      <c r="D89">
+        <v>1787.8</v>
+      </c>
+      <c r="E89">
+        <v>1765</v>
+      </c>
+      <c r="F89">
+        <v>1775</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1775.9333333333334</v>
+      </c>
+      <c r="H89">
+        <v>1767.1062270718965</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1771.8295627616483</v>
+      </c>
+      <c r="K89">
+        <v>1738.9804513199949</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>65.481759639142368</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>22.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.43859649122807104</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1750.5394713849382</v>
+      </c>
+      <c r="W89">
+        <v>1727.6513094721734</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>22.888161912764872</v>
+      </c>
+      <c r="Y89">
+        <v>26.604902411745872</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1770</v>
+      </c>
+      <c r="D90">
+        <v>1804.8</v>
+      </c>
+      <c r="E90">
+        <v>1762.3</v>
+      </c>
+      <c r="F90">
+        <v>1793.95</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1787.0166666666667</v>
+      </c>
+      <c r="H90">
+        <v>1777.0614468692816</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1779.156326592393</v>
+      </c>
+      <c r="K90">
+        <v>1744.1625732488849</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>72.951118991088848</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>31.650000000000091</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>42.5</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.74470588235294333</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1757.2180142487939</v>
+      </c>
+      <c r="W90">
+        <v>1732.5623235853457</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>24.65569066344824</v>
+      </c>
+      <c r="Y90">
+        <v>26.215060062086344</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1801.8</v>
+      </c>
+      <c r="D91">
+        <v>1819</v>
+      </c>
+      <c r="E91">
+        <v>1792.4</v>
+      </c>
+      <c r="F91">
+        <v>1796</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1802.4666666666665</v>
+      </c>
+      <c r="H91">
+        <v>1789.7640567679741</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1788.0104762385279</v>
+      </c>
+      <c r="K91">
+        <v>1754.8820014157993</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>73.720095628779148</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999091</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>26.599999999999909</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.1353383458646587</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1763.1844735951333</v>
+      </c>
+      <c r="W91">
+        <v>1737.261410727172</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>25.923062867961335</v>
+      </c>
+      <c r="Y91">
+        <v>26.156660623261342</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1807</v>
+      </c>
+      <c r="D92">
+        <v>1807.7</v>
+      </c>
+      <c r="E92">
+        <v>1780.25</v>
+      </c>
+      <c r="F92">
+        <v>1786</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1791.3166666666666</v>
+      </c>
+      <c r="H92">
+        <v>1790.5403617173204</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1792.3859259632995</v>
+      </c>
+      <c r="K92">
+        <v>1760.5193344345105</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>62.828816826762065</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>27.450000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.20947176684881569</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1766.6945545804974</v>
+      </c>
+      <c r="W92">
+        <v>1740.8716765992333</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>25.822877981264128</v>
+      </c>
+      <c r="Y92">
+        <v>26.0899040948619</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1796.25</v>
+      </c>
+      <c r="D93">
+        <v>1865.75</v>
+      </c>
+      <c r="E93">
+        <v>1794.25</v>
+      </c>
+      <c r="F93">
+        <v>1846</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1835.3333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1812.9368475253268</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1808.6890535270109</v>
+      </c>
+      <c r="K93">
+        <v>1768.0150378935082</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>82.366920603591709</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>51.75</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>71.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.72377622377622375</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1778.895392337344</v>
+      </c>
+      <c r="W93">
+        <v>1748.6589598141049</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>30.236432523239046</v>
+      </c>
+      <c r="Y93">
+        <v>26.919209780537329</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1854.9</v>
+      </c>
+      <c r="D94">
+        <v>1858.85</v>
+      </c>
+      <c r="E94">
+        <v>1822</v>
+      </c>
+      <c r="F94">
+        <v>1853</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1844.6166666666668</v>
+      </c>
+      <c r="H94">
+        <v>1828.7767570959968</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1819.8359305210083</v>
+      </c>
+      <c r="K94">
+        <v>1780.0116961393953</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>83.622328847609296</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>36.849999999999909</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.84124830393487315</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1790.2961012085218</v>
+      </c>
+      <c r="W94">
+        <v>1756.3879257538008</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>33.908175454721004</v>
+      </c>
+      <c r="Y94">
+        <v>28.317002915374065</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>1826.2</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>1836.1000000000001</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>1840.45</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>1844.75</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1852</v>
+      </c>
+      <c r="D95">
+        <v>1862</v>
+      </c>
+      <c r="E95">
+        <v>1832.6</v>
+      </c>
+      <c r="F95">
+        <v>1839.05</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1844.55</v>
+      </c>
+      <c r="H95">
+        <v>1836.6633785479985</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1829.205723738562</v>
+      </c>
+      <c r="K95">
+        <v>1791.6979858861964</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>71.025596944630166</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>29.400000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.2193877551020417</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1797.7967010225955</v>
+      </c>
+      <c r="W95">
+        <v>1762.5110423646304</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>35.285658657965087</v>
+      </c>
+      <c r="Y95">
+        <v>29.710734063892268</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1845.4</v>
+      </c>
+      <c r="D96">
+        <v>1866</v>
+      </c>
+      <c r="E96">
+        <v>1840.2</v>
+      </c>
+      <c r="F96">
+        <v>1851.6</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1852.5999999999997</v>
+      </c>
+      <c r="H96">
+        <v>1844.6316892739992</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1837.3822295744371</v>
+      </c>
+      <c r="K96">
+        <v>1802.4762112448195</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>75.222861201491369</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>11.399999999999864</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>25.799999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.44186046511627458</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1806.0741316345038</v>
+      </c>
+      <c r="W96">
+        <v>1769.1102244116948</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>36.963907222808984</v>
+      </c>
+      <c r="Y96">
+        <v>31.161368695675613</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1828.4</v>
+      </c>
+      <c r="D97">
+        <v>1859</v>
+      </c>
+      <c r="E97">
+        <v>1827.3</v>
+      </c>
+      <c r="F97">
+        <v>1840.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1842.1166666666668</v>
+      </c>
+      <c r="H97">
+        <v>1843.374177970333</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1842.1861785578956</v>
+      </c>
+      <c r="K97">
+        <v>1807.9926087459708</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>64.477770214053393</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>12.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>31.700000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.40220820189274392</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1811.3011883061185</v>
+      </c>
+      <c r="W97">
+        <v>1774.365022603421</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>36.936165702697508</v>
+      </c>
+      <c r="Y97">
+        <v>32.316328097079989</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1852.1</v>
+      </c>
+      <c r="D98">
+        <v>1872</v>
+      </c>
+      <c r="E98">
+        <v>1851</v>
+      </c>
+      <c r="F98">
+        <v>1858</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1860.3333333333333</v>
+      </c>
+      <c r="H98">
+        <v>1851.8537556518331</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1848.8114722116966</v>
+      </c>
+      <c r="K98">
+        <v>1817.5498068024217</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>72.193806639298515</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1818.4856208744079</v>
+      </c>
+      <c r="W98">
+        <v>1780.5602061142788</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>37.925414760129115</v>
+      </c>
+      <c r="Y98">
+        <v>33.438145429689811</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1861.4</v>
+      </c>
+      <c r="D99">
+        <v>1872</v>
+      </c>
+      <c r="E99">
+        <v>1847.15</v>
+      </c>
+      <c r="F99">
+        <v>1865</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1861.3833333333332</v>
+      </c>
+      <c r="H99">
+        <v>1856.6185444925832</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1853.964478386875</v>
+      </c>
+      <c r="K99">
+        <v>1824.1276275129946</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>74.856179721712834</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>17.849999999999909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>24.849999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.71830985915492851</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1825.641679201422</v>
+      </c>
+      <c r="W99">
+        <v>1786.8150056613692</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>38.826673540052752</v>
+      </c>
+      <c r="Y99">
+        <v>34.515851051762397</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1865</v>
+      </c>
+      <c r="D100">
+        <v>1886</v>
+      </c>
+      <c r="E100">
+        <v>1861</v>
+      </c>
+      <c r="F100">
+        <v>1878.4</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1875.1333333333332</v>
+      </c>
+      <c r="H100">
+        <v>1865.8759389129582</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1861.0834831897917</v>
+      </c>
+      <c r="K100">
+        <v>1832.3214880656626</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>79.543068411456474</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>17.400000000000091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.69600000000000362</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1833.7583439396649</v>
+      </c>
+      <c r="W100">
+        <v>1793.5990793160827</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>40.159264623582203</v>
+      </c>
+      <c r="Y100">
+        <v>35.644533766126358</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>375.3</v>
+      </c>
+      <c r="D101">
+        <v>382.9</v>
+      </c>
+      <c r="E101">
+        <v>373.35</v>
+      </c>
+      <c r="F101">
+        <v>377.2</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>377.81666666666666</v>
+      </c>
+      <c r="H101">
+        <v>1121.8463027898124</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1532.5982647031713</v>
+      </c>
+      <c r="K101">
+        <v>1508.1056018288486</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>2.9347999321300904</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.8499999999999659</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>9.5499999999999545</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.40314136125654287</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1609.6724448720242</v>
+      </c>
+      <c r="W101">
+        <v>1688.6806289963729</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-79.008184124348645</v>
+      </c>
+      <c r="Y101">
+        <v>12.713990188031357</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>376.8</v>
+      </c>
+      <c r="D102">
+        <v>376.8</v>
+      </c>
+      <c r="E102">
+        <v>359.45</v>
+      </c>
+      <c r="F102">
+        <v>361.45</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>365.90000000000003</v>
+      </c>
+      <c r="H102">
+        <v>743.87315139490624</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1275.7542058802442</v>
+      </c>
+      <c r="K102">
+        <v>1252.8488014224379</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>2.8981938914118213</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>17.350000000000023</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.11527377521613817</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1417.6382225840205</v>
+      </c>
+      <c r="W102">
+        <v>1590.3672490707156</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-172.72902648669515</v>
+      </c>
+      <c r="Y102">
+        <v>-24.374613146913941</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>374.8</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>370.15000000000003</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>368.15000000000003</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>366.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>361</v>
+      </c>
+      <c r="D103">
+        <v>363.7</v>
+      </c>
+      <c r="E103">
+        <v>349</v>
+      </c>
+      <c r="F103">
+        <v>360.7</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>357.8</v>
+      </c>
+      <c r="H103">
+        <v>550.8365756974531</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1073.0754934624122</v>
+      </c>
+      <c r="K103">
+        <v>1051.9935122174518</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>2.8960437348072934</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>11.699999999999989</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>14.699999999999989</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.79591836734693866</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1255.0323421864789</v>
+      </c>
+      <c r="W103">
+        <v>1499.2807861765884</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-244.24844399010954</v>
+      </c>
+      <c r="Y103">
+        <v>-68.349379315553065</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>361</v>
+      </c>
+      <c r="D104">
+        <v>363</v>
+      </c>
+      <c r="E104">
+        <v>355.7</v>
+      </c>
+      <c r="F104">
+        <v>360.55</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>359.75</v>
+      </c>
+      <c r="H104">
+        <v>455.29328784872655</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>915.28093935965398</v>
+      </c>
+      <c r="K104">
+        <v>897.26162061357365</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>2.8955066940609737</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.8500000000000227</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.66438356164383772</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1117.4196741577898</v>
+      </c>
+      <c r="W104">
+        <v>1414.9303575709152</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-297.51068341312543</v>
+      </c>
+      <c r="Y104">
+        <v>-114.18164013506754</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>364.9</v>
+      </c>
+      <c r="D105">
+        <v>364.9</v>
+      </c>
+      <c r="E105">
+        <v>350.75</v>
+      </c>
+      <c r="F105">
+        <v>352.7</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>356.11666666666662</v>
+      </c>
+      <c r="H105">
+        <v>405.70497725769656</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>792.97406394639756</v>
+      </c>
+      <c r="K105">
+        <v>775.81459381055731</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>2.8608027806123837</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>14.149999999999977</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.13780918727915137</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>999.7704935181298</v>
+      </c>
+      <c r="W105">
+        <v>1336.2466273804771</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-336.4761338623473</v>
+      </c>
+      <c r="Y105">
+        <v>-158.64053888052348</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>363.3</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>359.5</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>357.8</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>356.15000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>353.5</v>
+      </c>
+      <c r="D106">
+        <v>355.45</v>
+      </c>
+      <c r="E106">
+        <v>347.3</v>
+      </c>
+      <c r="F106">
+        <v>351.2</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>351.31666666666666</v>
+      </c>
+      <c r="H106">
+        <v>378.51082196218158</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>695.7464941805315</v>
+      </c>
+      <c r="K106">
+        <v>680.58912851932234</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>2.8526363569535458</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.47852760736196176</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>899.99041759226373</v>
+      </c>
+      <c r="W106">
+        <v>1263.2802105374788</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-363.28979294521503</v>
+      </c>
+      <c r="Y106">
+        <v>-199.57038969346178</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>353.7</v>
+      </c>
+      <c r="D107">
+        <v>353.9</v>
+      </c>
+      <c r="E107">
+        <v>345.1</v>
+      </c>
+      <c r="F107">
+        <v>349.3</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>349.43333333333334</v>
+      </c>
+      <c r="H107">
+        <v>363.97207764775749</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>619.78060658485788</v>
+      </c>
+      <c r="K107">
+        <v>606.03598884836185</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>2.8398011088877331</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>8.7999999999999545</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.47727272727272846</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>815.26881488576157</v>
+      </c>
+      <c r="W107">
+        <v>1195.5779727198878</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-380.30915783412627</v>
+      </c>
+      <c r="Y107">
+        <v>-235.71814332159468</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
